--- a/examples/sources/data/unsolved/to_schedule/2019-04-15.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-04-15.xlsx
@@ -925,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2">
         <v>43570</v>
@@ -3575,7 +3575,7 @@
         <v>1</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64" s="2">
         <v>43570</v>
@@ -3748,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O68" s="2">
         <v>43570</v>
@@ -4094,7 +4094,7 @@
         <v>1</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O76" s="2">
         <v>43570</v>
